--- a/database/industries/siman/semazen/income/quarterly/rial.xlsx
+++ b/database/industries/siman/semazen/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F424A255-A4F3-4EBA-B5B5-F29CDDEA2012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12220BD-5CBF-4A12-980F-7F2AC210CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سمازن-سیمان‌مازندران‌</t>
@@ -37,21 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -68,21 +53,6 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
-  </si>
-  <si>
-    <t>1400-06-13 (4)</t>
-  </si>
-  <si>
-    <t>1400-07-30 (2)</t>
-  </si>
-  <si>
-    <t>1400-12-15 (8)</t>
-  </si>
-  <si>
-    <t>1401-01-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-06-13 (4)</t>
   </si>
   <si>
     <t>1401-07-30 (2)</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>960204</v>
+        <v>2261361</v>
       </c>
       <c r="E11" s="13">
-        <v>1329685</v>
+        <v>2578919</v>
       </c>
       <c r="F11" s="13">
-        <v>1656540</v>
+        <v>2632695</v>
       </c>
       <c r="G11" s="13">
-        <v>1727035</v>
+        <v>3013835</v>
       </c>
       <c r="H11" s="13">
-        <v>2337222</v>
-      </c>
-      <c r="I11" s="13">
-        <v>2261361</v>
-      </c>
-      <c r="J11" s="13">
-        <v>2578919</v>
-      </c>
-      <c r="K11" s="13">
-        <v>2632695</v>
-      </c>
-      <c r="L11" s="13">
-        <v>3013835</v>
-      </c>
-      <c r="M11" s="13">
         <v>4250507</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-513117</v>
+        <v>-1049843</v>
       </c>
       <c r="E12" s="11">
-        <v>-646199</v>
+        <v>-1150289</v>
       </c>
       <c r="F12" s="11">
-        <v>-782170</v>
+        <v>-1375192</v>
       </c>
       <c r="G12" s="11">
-        <v>-965829</v>
+        <v>-1196111</v>
       </c>
       <c r="H12" s="11">
-        <v>-1068187</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-1049843</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-1150289</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-1375192</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-1196111</v>
-      </c>
-      <c r="M12" s="11">
         <v>-2191249</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>447087</v>
+        <v>1211518</v>
       </c>
       <c r="E13" s="15">
-        <v>683486</v>
+        <v>1428630</v>
       </c>
       <c r="F13" s="15">
-        <v>874370</v>
+        <v>1257503</v>
       </c>
       <c r="G13" s="15">
-        <v>761206</v>
+        <v>1817724</v>
       </c>
       <c r="H13" s="15">
-        <v>1269035</v>
-      </c>
-      <c r="I13" s="15">
-        <v>1211518</v>
-      </c>
-      <c r="J13" s="15">
-        <v>1428630</v>
-      </c>
-      <c r="K13" s="15">
-        <v>1257503</v>
-      </c>
-      <c r="L13" s="15">
-        <v>1817724</v>
-      </c>
-      <c r="M13" s="15">
         <v>2059258</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-72163</v>
+        <v>-80501</v>
       </c>
       <c r="E14" s="11">
-        <v>-42337</v>
+        <v>-145833</v>
       </c>
       <c r="F14" s="11">
-        <v>-158964</v>
+        <v>-100506</v>
       </c>
       <c r="G14" s="11">
-        <v>-65436</v>
+        <v>-177438</v>
       </c>
       <c r="H14" s="11">
-        <v>-169040</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-80501</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-145833</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-100506</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-177438</v>
-      </c>
-      <c r="M14" s="11">
         <v>-151188</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,277 +824,157 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-25057</v>
+        <v>-13697</v>
       </c>
       <c r="E16" s="11">
-        <v>62741</v>
+        <v>-10066</v>
       </c>
       <c r="F16" s="11">
-        <v>-86567</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>25040</v>
+        <v>17827</v>
       </c>
       <c r="H16" s="11">
-        <v>-33656</v>
-      </c>
-      <c r="I16" s="11">
-        <v>-13697</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-10066</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>17827</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>349867</v>
+        <v>1117320</v>
       </c>
       <c r="E17" s="15">
-        <v>703890</v>
+        <v>1272731</v>
       </c>
       <c r="F17" s="15">
-        <v>628839</v>
+        <v>1156997</v>
       </c>
       <c r="G17" s="15">
-        <v>720810</v>
+        <v>1658113</v>
       </c>
       <c r="H17" s="15">
-        <v>1066339</v>
-      </c>
-      <c r="I17" s="15">
-        <v>1117320</v>
-      </c>
-      <c r="J17" s="15">
-        <v>1272731</v>
-      </c>
-      <c r="K17" s="15">
-        <v>1156997</v>
-      </c>
-      <c r="L17" s="15">
-        <v>1658113</v>
-      </c>
-      <c r="M17" s="15">
         <v>1908070</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-18589</v>
+        <v>-4834</v>
       </c>
       <c r="E18" s="11">
-        <v>-16437</v>
+        <v>-2316</v>
       </c>
       <c r="F18" s="11">
-        <v>-13953</v>
+        <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>-14624</v>
+        <v>-625</v>
       </c>
       <c r="H18" s="11">
-        <v>-4820</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-4834</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-2316</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-625</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-2769</v>
+        <v>158046</v>
       </c>
       <c r="E19" s="13">
-        <v>-50927</v>
+        <v>108627</v>
       </c>
       <c r="F19" s="13">
-        <v>286776</v>
+        <v>119659</v>
       </c>
       <c r="G19" s="13">
-        <v>-8440</v>
+        <v>199058</v>
       </c>
       <c r="H19" s="13">
-        <v>14643</v>
-      </c>
-      <c r="I19" s="13">
-        <v>158046</v>
-      </c>
-      <c r="J19" s="13">
-        <v>108627</v>
-      </c>
-      <c r="K19" s="13">
-        <v>119659</v>
-      </c>
-      <c r="L19" s="13">
-        <v>199058</v>
-      </c>
-      <c r="M19" s="13">
         <v>64434</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>328509</v>
+        <v>1270532</v>
       </c>
       <c r="E20" s="17">
-        <v>636526</v>
+        <v>1379042</v>
       </c>
       <c r="F20" s="17">
-        <v>901662</v>
+        <v>1276656</v>
       </c>
       <c r="G20" s="17">
-        <v>697746</v>
+        <v>1856546</v>
       </c>
       <c r="H20" s="17">
-        <v>1076162</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1270532</v>
-      </c>
-      <c r="J20" s="17">
-        <v>1379042</v>
-      </c>
-      <c r="K20" s="17">
-        <v>1276656</v>
-      </c>
-      <c r="L20" s="17">
-        <v>1856546</v>
-      </c>
-      <c r="M20" s="17">
         <v>1972504</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-26564</v>
+        <v>-240858</v>
       </c>
       <c r="E21" s="13">
-        <v>-205568</v>
+        <v>-27855</v>
       </c>
       <c r="F21" s="13">
-        <v>19298</v>
+        <v>-220822</v>
       </c>
       <c r="G21" s="13">
-        <v>-134579</v>
+        <v>-170199</v>
       </c>
       <c r="H21" s="13">
-        <v>-153517</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-240858</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-27855</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-220822</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-170199</v>
-      </c>
-      <c r="M21" s="13">
         <v>-424335</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>301945</v>
+        <v>1029674</v>
       </c>
       <c r="E22" s="17">
-        <v>430958</v>
+        <v>1351187</v>
       </c>
       <c r="F22" s="17">
-        <v>920960</v>
+        <v>1055834</v>
       </c>
       <c r="G22" s="17">
-        <v>563167</v>
+        <v>1686347</v>
       </c>
       <c r="H22" s="17">
-        <v>922645</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1029674</v>
-      </c>
-      <c r="J22" s="17">
-        <v>1351187</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1055834</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1686347</v>
-      </c>
-      <c r="M22" s="17">
         <v>1548169</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,97 +992,52 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>301945</v>
+        <v>1029674</v>
       </c>
       <c r="E24" s="17">
-        <v>430958</v>
+        <v>1351187</v>
       </c>
       <c r="F24" s="17">
-        <v>920960</v>
+        <v>1055834</v>
       </c>
       <c r="G24" s="17">
-        <v>563167</v>
+        <v>1686347</v>
       </c>
       <c r="H24" s="17">
-        <v>922645</v>
-      </c>
-      <c r="I24" s="17">
-        <v>1029674</v>
-      </c>
-      <c r="J24" s="17">
-        <v>1351187</v>
-      </c>
-      <c r="K24" s="17">
-        <v>1055834</v>
-      </c>
-      <c r="L24" s="17">
-        <v>1686347</v>
-      </c>
-      <c r="M24" s="17">
         <v>1548169</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>184</v>
+        <v>626</v>
       </c>
       <c r="E25" s="13">
-        <v>262</v>
+        <v>822</v>
       </c>
       <c r="F25" s="13">
-        <v>560</v>
+        <v>428</v>
       </c>
       <c r="G25" s="13">
-        <v>343</v>
+        <v>684</v>
       </c>
       <c r="H25" s="13">
-        <v>374</v>
-      </c>
-      <c r="I25" s="13">
-        <v>626</v>
-      </c>
-      <c r="J25" s="13">
-        <v>822</v>
-      </c>
-      <c r="K25" s="13">
-        <v>428</v>
-      </c>
-      <c r="L25" s="13">
-        <v>684</v>
-      </c>
-      <c r="M25" s="13">
         <v>628</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1374,67 +1047,37 @@
         <v>1644000</v>
       </c>
       <c r="F26" s="11">
-        <v>1644000</v>
+        <v>2466000</v>
       </c>
       <c r="G26" s="11">
-        <v>1644000</v>
+        <v>2466000</v>
       </c>
       <c r="H26" s="11">
         <v>2466000</v>
       </c>
-      <c r="I26" s="11">
-        <v>1644000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1644000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>2466000</v>
-      </c>
-      <c r="L26" s="11">
-        <v>2466000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>2466000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>122</v>
+        <v>418</v>
       </c>
       <c r="E27" s="13">
-        <v>175</v>
+        <v>548</v>
       </c>
       <c r="F27" s="13">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="G27" s="13">
-        <v>228</v>
+        <v>684</v>
       </c>
       <c r="H27" s="13">
-        <v>374</v>
-      </c>
-      <c r="I27" s="13">
-        <v>418</v>
-      </c>
-      <c r="J27" s="13">
-        <v>548</v>
-      </c>
-      <c r="K27" s="13">
-        <v>428</v>
-      </c>
-      <c r="L27" s="13">
-        <v>684</v>
-      </c>
-      <c r="M27" s="13">
         <v>628</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/semazen/income/quarterly/rial.xlsx
+++ b/database/industries/siman/semazen/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\semazen\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12220BD-5CBF-4A12-980F-7F2AC210CE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C19CBDF-483E-4164-BB78-2BB658D3C726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-07-30 (2)</t>
+  </si>
+  <si>
+    <t>1400-12-15 (8)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-06-13 (4)</t>
+  </si>
+  <si>
     <t>1401-07-30 (2)</t>
   </si>
   <si>
-    <t>1401-07-30 (6)</t>
+    <t>1401-12-06 (8)</t>
   </si>
   <si>
     <t>1401-01-30</t>
@@ -68,6 +95,9 @@
   </si>
   <si>
     <t>1401-07-30</t>
+  </si>
+  <si>
+    <t>1401-12-06 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -585,20 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +639,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +655,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +671,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +685,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +701,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +717,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +731,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +757,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +817,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>1329685</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1656540</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1727035</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2337222</v>
+      </c>
+      <c r="H11" s="13">
         <v>2261361</v>
       </c>
-      <c r="E11" s="13">
+      <c r="I11" s="13">
         <v>2578919</v>
       </c>
-      <c r="F11" s="13">
+      <c r="J11" s="13">
         <v>2632695</v>
       </c>
-      <c r="G11" s="13">
+      <c r="K11" s="13">
         <v>3013835</v>
       </c>
-      <c r="H11" s="13">
+      <c r="L11" s="13">
         <v>4250507</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M11" s="13">
+        <v>4188578</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-646199</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-782170</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-965829</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1068187</v>
+      </c>
+      <c r="H12" s="11">
         <v>-1049843</v>
       </c>
-      <c r="E12" s="11">
+      <c r="I12" s="11">
         <v>-1150289</v>
       </c>
-      <c r="F12" s="11">
+      <c r="J12" s="11">
         <v>-1375192</v>
       </c>
-      <c r="G12" s="11">
+      <c r="K12" s="11">
         <v>-1196111</v>
       </c>
-      <c r="H12" s="11">
+      <c r="L12" s="11">
         <v>-2191249</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="11">
+        <v>-1649500</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>683486</v>
+      </c>
+      <c r="E13" s="15">
+        <v>874370</v>
+      </c>
+      <c r="F13" s="15">
+        <v>761206</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1269035</v>
+      </c>
+      <c r="H13" s="15">
         <v>1211518</v>
       </c>
-      <c r="E13" s="15">
+      <c r="I13" s="15">
         <v>1428630</v>
       </c>
-      <c r="F13" s="15">
+      <c r="J13" s="15">
         <v>1257503</v>
       </c>
-      <c r="G13" s="15">
+      <c r="K13" s="15">
         <v>1817724</v>
       </c>
-      <c r="H13" s="15">
+      <c r="L13" s="15">
         <v>2059258</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="15">
+        <v>2539078</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-42337</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-158964</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-65436</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-169040</v>
+      </c>
+      <c r="H14" s="11">
         <v>-80501</v>
       </c>
-      <c r="E14" s="11">
+      <c r="I14" s="11">
         <v>-145833</v>
       </c>
-      <c r="F14" s="11">
+      <c r="J14" s="11">
         <v>-100506</v>
       </c>
-      <c r="G14" s="11">
+      <c r="K14" s="11">
         <v>-177438</v>
       </c>
-      <c r="H14" s="11">
+      <c r="L14" s="11">
         <v>-151188</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="11">
+        <v>-309742</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +987,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>62741</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-86567</v>
+      </c>
+      <c r="F16" s="11">
+        <v>25040</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-33656</v>
+      </c>
+      <c r="H16" s="11">
         <v>-13697</v>
       </c>
-      <c r="E16" s="11">
+      <c r="I16" s="11">
         <v>-10066</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
         <v>17827</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>287144</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>703890</v>
+      </c>
+      <c r="E17" s="15">
+        <v>628839</v>
+      </c>
+      <c r="F17" s="15">
+        <v>720810</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1066339</v>
+      </c>
+      <c r="H17" s="15">
         <v>1117320</v>
       </c>
-      <c r="E17" s="15">
+      <c r="I17" s="15">
         <v>1272731</v>
       </c>
-      <c r="F17" s="15">
+      <c r="J17" s="15">
         <v>1156997</v>
       </c>
-      <c r="G17" s="15">
+      <c r="K17" s="15">
         <v>1658113</v>
       </c>
-      <c r="H17" s="15">
+      <c r="L17" s="15">
         <v>1908070</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M17" s="15">
+        <v>2516480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-16437</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-13953</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-14624</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-4820</v>
+      </c>
+      <c r="H18" s="11">
         <v>-4834</v>
       </c>
-      <c r="E18" s="11">
+      <c r="I18" s="11">
         <v>-2316</v>
       </c>
-      <c r="F18" s="11">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
         <v>-625</v>
       </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>-4654</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-50927</v>
+      </c>
+      <c r="E19" s="13">
+        <v>286776</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-8440</v>
+      </c>
+      <c r="G19" s="13">
+        <v>14643</v>
+      </c>
+      <c r="H19" s="13">
         <v>158046</v>
       </c>
-      <c r="E19" s="13">
+      <c r="I19" s="13">
         <v>108627</v>
       </c>
-      <c r="F19" s="13">
+      <c r="J19" s="13">
         <v>119659</v>
       </c>
-      <c r="G19" s="13">
+      <c r="K19" s="13">
         <v>199058</v>
       </c>
-      <c r="H19" s="13">
+      <c r="L19" s="13">
         <v>64434</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M19" s="13">
+        <v>197524</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>636526</v>
+      </c>
+      <c r="E20" s="17">
+        <v>901662</v>
+      </c>
+      <c r="F20" s="17">
+        <v>697746</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1076162</v>
+      </c>
+      <c r="H20" s="17">
         <v>1270532</v>
       </c>
-      <c r="E20" s="17">
+      <c r="I20" s="17">
         <v>1379042</v>
       </c>
-      <c r="F20" s="17">
+      <c r="J20" s="17">
         <v>1276656</v>
       </c>
-      <c r="G20" s="17">
+      <c r="K20" s="17">
         <v>1856546</v>
       </c>
-      <c r="H20" s="17">
+      <c r="L20" s="17">
         <v>1972504</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M20" s="17">
+        <v>2709350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-205568</v>
+      </c>
+      <c r="E21" s="13">
+        <v>19298</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-134579</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-153517</v>
+      </c>
+      <c r="H21" s="13">
         <v>-240858</v>
       </c>
-      <c r="E21" s="13">
+      <c r="I21" s="13">
         <v>-27855</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>-220822</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>-170199</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>-424335</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="13">
+        <v>140636</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>430958</v>
+      </c>
+      <c r="E22" s="17">
+        <v>920960</v>
+      </c>
+      <c r="F22" s="17">
+        <v>563167</v>
+      </c>
+      <c r="G22" s="17">
+        <v>922645</v>
+      </c>
+      <c r="H22" s="17">
         <v>1029674</v>
       </c>
-      <c r="E22" s="17">
+      <c r="I22" s="17">
         <v>1351187</v>
       </c>
-      <c r="F22" s="17">
+      <c r="J22" s="17">
         <v>1055834</v>
       </c>
-      <c r="G22" s="17">
+      <c r="K22" s="17">
         <v>1686347</v>
       </c>
-      <c r="H22" s="17">
+      <c r="L22" s="17">
         <v>1548169</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M22" s="17">
+        <v>2849986</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,52 +1275,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>430958</v>
+      </c>
+      <c r="E24" s="17">
+        <v>920960</v>
+      </c>
+      <c r="F24" s="17">
+        <v>563167</v>
+      </c>
+      <c r="G24" s="17">
+        <v>922645</v>
+      </c>
+      <c r="H24" s="17">
         <v>1029674</v>
       </c>
-      <c r="E24" s="17">
+      <c r="I24" s="17">
         <v>1351187</v>
       </c>
-      <c r="F24" s="17">
+      <c r="J24" s="17">
         <v>1055834</v>
       </c>
-      <c r="G24" s="17">
+      <c r="K24" s="17">
         <v>1686347</v>
       </c>
-      <c r="H24" s="17">
+      <c r="L24" s="17">
         <v>1548169</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M24" s="17">
+        <v>2849986</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>262</v>
+      </c>
+      <c r="E25" s="13">
+        <v>560</v>
+      </c>
+      <c r="F25" s="13">
+        <v>343</v>
+      </c>
+      <c r="G25" s="13">
+        <v>374</v>
+      </c>
+      <c r="H25" s="13">
         <v>626</v>
       </c>
-      <c r="E25" s="13">
-        <v>822</v>
-      </c>
-      <c r="F25" s="13">
+      <c r="I25" s="13">
+        <v>548</v>
+      </c>
+      <c r="J25" s="13">
         <v>428</v>
       </c>
-      <c r="G25" s="13">
+      <c r="K25" s="13">
         <v>684</v>
       </c>
-      <c r="H25" s="13">
+      <c r="L25" s="13">
         <v>628</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M25" s="13">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1047,37 +1375,67 @@
         <v>1644000</v>
       </c>
       <c r="F26" s="11">
-        <v>2466000</v>
+        <v>1644000</v>
       </c>
       <c r="G26" s="11">
         <v>2466000</v>
       </c>
       <c r="H26" s="11">
+        <v>1644000</v>
+      </c>
+      <c r="I26" s="11">
         <v>2466000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="11">
+        <v>2466000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2466000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>2466000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>2466000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>175</v>
+      </c>
+      <c r="E27" s="13">
+        <v>373</v>
+      </c>
+      <c r="F27" s="13">
+        <v>228</v>
+      </c>
+      <c r="G27" s="13">
+        <v>374</v>
+      </c>
+      <c r="H27" s="13">
         <v>418</v>
       </c>
-      <c r="E27" s="13">
+      <c r="I27" s="13">
         <v>548</v>
       </c>
-      <c r="F27" s="13">
+      <c r="J27" s="13">
         <v>428</v>
       </c>
-      <c r="G27" s="13">
+      <c r="K27" s="13">
         <v>684</v>
       </c>
-      <c r="H27" s="13">
+      <c r="L27" s="13">
         <v>628</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="13">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1443,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/semazen/income/quarterly/rial.xlsx
+++ b/database/industries/siman/semazen/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\semazen\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C19CBDF-483E-4164-BB78-2BB658D3C726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2049C071-3E3D-462B-B39A-994340AC00DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-07-30 (2)</t>
-  </si>
-  <si>
     <t>1400-12-15 (8)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-12-06 (8)</t>
   </si>
   <si>
-    <t>1401-01-30</t>
+    <t>1402-01-30 (2)</t>
   </si>
   <si>
     <t>1401-06-13 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-07-30</t>
   </si>
   <si>
-    <t>1401-12-06 (2)</t>
+    <t>1402-01-30 (3)</t>
+  </si>
+  <si>
+    <t>1402-01-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1329685</v>
+        <v>1656540</v>
       </c>
       <c r="E11" s="13">
-        <v>1656540</v>
+        <v>1727035</v>
       </c>
       <c r="F11" s="13">
-        <v>1727035</v>
+        <v>2337222</v>
       </c>
       <c r="G11" s="13">
-        <v>2337222</v>
+        <v>2261361</v>
       </c>
       <c r="H11" s="13">
-        <v>2261361</v>
+        <v>2578919</v>
       </c>
       <c r="I11" s="13">
-        <v>2578919</v>
+        <v>2632695</v>
       </c>
       <c r="J11" s="13">
-        <v>2632695</v>
+        <v>3013835</v>
       </c>
       <c r="K11" s="13">
-        <v>3013835</v>
+        <v>4250507</v>
       </c>
       <c r="L11" s="13">
-        <v>4250507</v>
+        <v>4188578</v>
       </c>
       <c r="M11" s="13">
-        <v>4188578</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3139808</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-646199</v>
+        <v>-782170</v>
       </c>
       <c r="E12" s="11">
-        <v>-782170</v>
+        <v>-965829</v>
       </c>
       <c r="F12" s="11">
-        <v>-965829</v>
+        <v>-1068187</v>
       </c>
       <c r="G12" s="11">
-        <v>-1068187</v>
+        <v>-1049843</v>
       </c>
       <c r="H12" s="11">
-        <v>-1049843</v>
+        <v>-1150289</v>
       </c>
       <c r="I12" s="11">
-        <v>-1150289</v>
+        <v>-1375192</v>
       </c>
       <c r="J12" s="11">
-        <v>-1375192</v>
+        <v>-1196111</v>
       </c>
       <c r="K12" s="11">
-        <v>-1196111</v>
+        <v>-2191249</v>
       </c>
       <c r="L12" s="11">
-        <v>-2191249</v>
+        <v>-1649500</v>
       </c>
       <c r="M12" s="11">
-        <v>-1649500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1637053</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>683486</v>
+        <v>874370</v>
       </c>
       <c r="E13" s="15">
-        <v>874370</v>
+        <v>761206</v>
       </c>
       <c r="F13" s="15">
-        <v>761206</v>
+        <v>1269035</v>
       </c>
       <c r="G13" s="15">
-        <v>1269035</v>
+        <v>1211518</v>
       </c>
       <c r="H13" s="15">
-        <v>1211518</v>
+        <v>1428630</v>
       </c>
       <c r="I13" s="15">
-        <v>1428630</v>
+        <v>1257503</v>
       </c>
       <c r="J13" s="15">
-        <v>1257503</v>
+        <v>1817724</v>
       </c>
       <c r="K13" s="15">
-        <v>1817724</v>
+        <v>2059258</v>
       </c>
       <c r="L13" s="15">
-        <v>2059258</v>
+        <v>2539078</v>
       </c>
       <c r="M13" s="15">
-        <v>2539078</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1502755</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-42337</v>
+        <v>-158964</v>
       </c>
       <c r="E14" s="11">
-        <v>-158964</v>
+        <v>-65436</v>
       </c>
       <c r="F14" s="11">
-        <v>-65436</v>
+        <v>-169040</v>
       </c>
       <c r="G14" s="11">
-        <v>-169040</v>
+        <v>-80501</v>
       </c>
       <c r="H14" s="11">
-        <v>-80501</v>
+        <v>-145833</v>
       </c>
       <c r="I14" s="11">
-        <v>-145833</v>
+        <v>-100506</v>
       </c>
       <c r="J14" s="11">
-        <v>-100506</v>
+        <v>-177438</v>
       </c>
       <c r="K14" s="11">
-        <v>-177438</v>
+        <v>-151188</v>
       </c>
       <c r="L14" s="11">
-        <v>-151188</v>
+        <v>-309742</v>
       </c>
       <c r="M14" s="11">
-        <v>-309742</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-135259</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,259 +1003,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>62741</v>
+        <v>-86567</v>
       </c>
       <c r="E16" s="11">
-        <v>-86567</v>
+        <v>25040</v>
       </c>
       <c r="F16" s="11">
-        <v>25040</v>
+        <v>-33656</v>
       </c>
       <c r="G16" s="11">
-        <v>-33656</v>
+        <v>-13697</v>
       </c>
       <c r="H16" s="11">
-        <v>-13697</v>
+        <v>-10066</v>
       </c>
       <c r="I16" s="11">
-        <v>-10066</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>0</v>
+        <v>17827</v>
       </c>
       <c r="K16" s="11">
-        <v>17827</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>0</v>
+        <v>287144</v>
       </c>
       <c r="M16" s="11">
-        <v>287144</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>703890</v>
+        <v>628839</v>
       </c>
       <c r="E17" s="15">
-        <v>628839</v>
+        <v>720810</v>
       </c>
       <c r="F17" s="15">
-        <v>720810</v>
+        <v>1066339</v>
       </c>
       <c r="G17" s="15">
-        <v>1066339</v>
+        <v>1117320</v>
       </c>
       <c r="H17" s="15">
-        <v>1117320</v>
+        <v>1272731</v>
       </c>
       <c r="I17" s="15">
-        <v>1272731</v>
+        <v>1156997</v>
       </c>
       <c r="J17" s="15">
-        <v>1156997</v>
+        <v>1658113</v>
       </c>
       <c r="K17" s="15">
-        <v>1658113</v>
+        <v>1908070</v>
       </c>
       <c r="L17" s="15">
-        <v>1908070</v>
+        <v>2516480</v>
       </c>
       <c r="M17" s="15">
-        <v>2516480</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1367496</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-16437</v>
+        <v>-13953</v>
       </c>
       <c r="E18" s="11">
-        <v>-13953</v>
+        <v>-14624</v>
       </c>
       <c r="F18" s="11">
-        <v>-14624</v>
+        <v>-4820</v>
       </c>
       <c r="G18" s="11">
-        <v>-4820</v>
+        <v>-4834</v>
       </c>
       <c r="H18" s="11">
-        <v>-4834</v>
+        <v>-2316</v>
       </c>
       <c r="I18" s="11">
-        <v>-2316</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="K18" s="11">
-        <v>-625</v>
+        <v>0</v>
       </c>
       <c r="L18" s="11">
-        <v>0</v>
+        <v>-4654</v>
       </c>
       <c r="M18" s="11">
-        <v>-4654</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-50927</v>
+        <v>286776</v>
       </c>
       <c r="E19" s="13">
-        <v>286776</v>
+        <v>-8440</v>
       </c>
       <c r="F19" s="13">
-        <v>-8440</v>
+        <v>14643</v>
       </c>
       <c r="G19" s="13">
-        <v>14643</v>
+        <v>158046</v>
       </c>
       <c r="H19" s="13">
-        <v>158046</v>
+        <v>108627</v>
       </c>
       <c r="I19" s="13">
-        <v>108627</v>
+        <v>0</v>
       </c>
       <c r="J19" s="13">
-        <v>119659</v>
+        <v>199058</v>
       </c>
       <c r="K19" s="13">
-        <v>199058</v>
+        <v>64434</v>
       </c>
       <c r="L19" s="13">
-        <v>64434</v>
+        <v>197524</v>
       </c>
       <c r="M19" s="13">
-        <v>197524</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>307792</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>636526</v>
+        <v>901662</v>
       </c>
       <c r="E20" s="17">
-        <v>901662</v>
+        <v>697746</v>
       </c>
       <c r="F20" s="17">
-        <v>697746</v>
+        <v>1076162</v>
       </c>
       <c r="G20" s="17">
-        <v>1076162</v>
+        <v>1270532</v>
       </c>
       <c r="H20" s="17">
-        <v>1270532</v>
+        <v>1379042</v>
       </c>
       <c r="I20" s="17">
-        <v>1379042</v>
+        <v>1156997</v>
       </c>
       <c r="J20" s="17">
-        <v>1276656</v>
+        <v>1856546</v>
       </c>
       <c r="K20" s="17">
-        <v>1856546</v>
+        <v>1972504</v>
       </c>
       <c r="L20" s="17">
-        <v>1972504</v>
+        <v>2709350</v>
       </c>
       <c r="M20" s="17">
-        <v>2709350</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1675288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-205568</v>
+        <v>19298</v>
       </c>
       <c r="E21" s="13">
-        <v>19298</v>
+        <v>-134579</v>
       </c>
       <c r="F21" s="13">
-        <v>-134579</v>
+        <v>-153517</v>
       </c>
       <c r="G21" s="13">
-        <v>-153517</v>
+        <v>-240858</v>
       </c>
       <c r="H21" s="13">
-        <v>-240858</v>
+        <v>-27855</v>
       </c>
       <c r="I21" s="13">
-        <v>-27855</v>
+        <v>-220822</v>
       </c>
       <c r="J21" s="13">
-        <v>-220822</v>
+        <v>-170199</v>
       </c>
       <c r="K21" s="13">
-        <v>-170199</v>
+        <v>-424335</v>
       </c>
       <c r="L21" s="13">
-        <v>-424335</v>
+        <v>140636</v>
       </c>
       <c r="M21" s="13">
-        <v>140636</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-177940</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>430958</v>
+        <v>920960</v>
       </c>
       <c r="E22" s="17">
-        <v>920960</v>
+        <v>563167</v>
       </c>
       <c r="F22" s="17">
-        <v>563167</v>
+        <v>922645</v>
       </c>
       <c r="G22" s="17">
-        <v>922645</v>
+        <v>1029674</v>
       </c>
       <c r="H22" s="17">
-        <v>1029674</v>
+        <v>1351187</v>
       </c>
       <c r="I22" s="17">
-        <v>1351187</v>
+        <v>936175</v>
       </c>
       <c r="J22" s="17">
-        <v>1055834</v>
+        <v>1686347</v>
       </c>
       <c r="K22" s="17">
-        <v>1686347</v>
+        <v>1548169</v>
       </c>
       <c r="L22" s="17">
-        <v>1548169</v>
+        <v>2849986</v>
       </c>
       <c r="M22" s="17">
-        <v>2849986</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1497348</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>430958</v>
+        <v>920960</v>
       </c>
       <c r="E24" s="17">
-        <v>920960</v>
+        <v>563167</v>
       </c>
       <c r="F24" s="17">
-        <v>563167</v>
+        <v>922645</v>
       </c>
       <c r="G24" s="17">
-        <v>922645</v>
+        <v>1029674</v>
       </c>
       <c r="H24" s="17">
-        <v>1029674</v>
+        <v>1351187</v>
       </c>
       <c r="I24" s="17">
-        <v>1351187</v>
+        <v>936175</v>
       </c>
       <c r="J24" s="17">
-        <v>1055834</v>
+        <v>1686347</v>
       </c>
       <c r="K24" s="17">
-        <v>1686347</v>
+        <v>1548169</v>
       </c>
       <c r="L24" s="17">
-        <v>1548169</v>
+        <v>2849986</v>
       </c>
       <c r="M24" s="17">
-        <v>2849986</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1497348</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>262</v>
+        <v>560</v>
       </c>
       <c r="E25" s="13">
-        <v>560</v>
+        <v>343</v>
       </c>
       <c r="F25" s="13">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G25" s="13">
-        <v>374</v>
+        <v>626</v>
       </c>
       <c r="H25" s="13">
-        <v>626</v>
+        <v>548</v>
       </c>
       <c r="I25" s="13">
-        <v>548</v>
+        <v>380</v>
       </c>
       <c r="J25" s="13">
-        <v>428</v>
+        <v>684</v>
       </c>
       <c r="K25" s="13">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="L25" s="13">
-        <v>628</v>
+        <v>1156</v>
       </c>
       <c r="M25" s="13">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1375,13 +1375,13 @@
         <v>1644000</v>
       </c>
       <c r="F26" s="11">
+        <v>2466000</v>
+      </c>
+      <c r="G26" s="11">
         <v>1644000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="H26" s="11">
         <v>2466000</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1644000</v>
       </c>
       <c r="I26" s="11">
         <v>2466000</v>
@@ -1399,43 +1399,43 @@
         <v>2466000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="E27" s="13">
-        <v>373</v>
+        <v>228</v>
       </c>
       <c r="F27" s="13">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="G27" s="13">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="H27" s="13">
-        <v>418</v>
+        <v>548</v>
       </c>
       <c r="I27" s="13">
-        <v>548</v>
+        <v>380</v>
       </c>
       <c r="J27" s="13">
-        <v>428</v>
+        <v>684</v>
       </c>
       <c r="K27" s="13">
-        <v>684</v>
+        <v>628</v>
       </c>
       <c r="L27" s="13">
-        <v>628</v>
+        <v>1156</v>
       </c>
       <c r="M27" s="13">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
